--- a/biology/Botanique/Polystachya_supfiana/Polystachya_supfiana.xlsx
+++ b/biology/Botanique/Polystachya_supfiana/Polystachya_supfiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polystachya supfiana Schltr. est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et du genre Polystachya, endémique d'Afrique centrale.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polystachya supfiana est une plante épiphyte de 9 à 26 cm de haut. Elle repose sur des pseudobulbes issus d'un court rhizome rampant mesurant de 3 à 19 cm de long. Ses feuilles mesurent de 5 à 17 cm de long et de 4,5 à 11 mm de large articulées au-dessus du pseudobulbe. Les inflorescences sont plus courtes que les feuilles et portent des grappes de 4 fleurs de couleurs jaunes, violettes ou rayées de vert[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polystachya supfiana est une plante épiphyte de 9 à 26 cm de haut. Elle repose sur des pseudobulbes issus d'un court rhizome rampant mesurant de 3 à 19 cm de long. Ses feuilles mesurent de 5 à 17 cm de long et de 4,5 à 11 mm de large articulées au-dessus du pseudobulbe. Les inflorescences sont plus courtes que les feuilles et portent des grappes de 4 fleurs de couleurs jaunes, violettes ou rayées de vert.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polystachya supfiana est une plante épiphyte qui pousse dans les forêts montagnardes dans une zone s'étendant du Nigeria au Gabon[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polystachya supfiana est une plante épiphyte qui pousse dans les forêts montagnardes dans une zone s'étendant du Nigeria au Gabon.
 </t>
         </is>
       </c>
